--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col18a1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col18a1-Itga5.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>10.92859066666667</v>
+        <v>0.5586043333333334</v>
       </c>
       <c r="H2">
-        <v>32.785772</v>
+        <v>1.675813</v>
       </c>
       <c r="I2">
-        <v>0.2185558471001832</v>
+        <v>0.01643366487114074</v>
       </c>
       <c r="J2">
-        <v>0.2185558471001832</v>
+        <v>0.01643366487114074</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N2">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O2">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P2">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q2">
-        <v>313.9147325983822</v>
+        <v>5.780221833859222</v>
       </c>
       <c r="R2">
-        <v>2825.23259338544</v>
+        <v>52.021996504733</v>
       </c>
       <c r="S2">
-        <v>0.09252035303374578</v>
+        <v>0.003779666467045227</v>
       </c>
       <c r="T2">
-        <v>0.0925203530337458</v>
+        <v>0.003779666467045227</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>10.92859066666667</v>
+        <v>0.5586043333333334</v>
       </c>
       <c r="H3">
-        <v>32.785772</v>
+        <v>1.675813</v>
       </c>
       <c r="I3">
-        <v>0.2185558471001832</v>
+        <v>0.01643366487114074</v>
       </c>
       <c r="J3">
-        <v>0.2185558471001832</v>
+        <v>0.01643366487114074</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>91.709587</v>
       </c>
       <c r="O3">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P3">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q3">
-        <v>334.0855121773516</v>
+        <v>17.07645756880344</v>
       </c>
       <c r="R3">
-        <v>3006.769609596164</v>
+        <v>153.688118119231</v>
       </c>
       <c r="S3">
-        <v>0.09846530385578864</v>
+        <v>0.01116623477504739</v>
       </c>
       <c r="T3">
-        <v>0.09846530385578864</v>
+        <v>0.01116623477504739</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>10.92859066666667</v>
+        <v>0.5586043333333334</v>
       </c>
       <c r="H4">
-        <v>32.785772</v>
+        <v>1.675813</v>
       </c>
       <c r="I4">
-        <v>0.2185558471001832</v>
+        <v>0.01643366487114074</v>
       </c>
       <c r="J4">
-        <v>0.2185558471001832</v>
+        <v>0.01643366487114074</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N4">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O4">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P4">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q4">
-        <v>93.54362152623466</v>
+        <v>2.275228221120889</v>
       </c>
       <c r="R4">
-        <v>841.892593736112</v>
+        <v>20.477053990088</v>
       </c>
       <c r="S4">
-        <v>0.02757019021064874</v>
+        <v>0.001487763629048122</v>
       </c>
       <c r="T4">
-        <v>0.02757019021064874</v>
+        <v>0.001487763629048122</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>21.275312</v>
       </c>
       <c r="H5">
-        <v>63.82593600000001</v>
+        <v>63.825936</v>
       </c>
       <c r="I5">
-        <v>0.4254751576214853</v>
+        <v>0.6259016025719319</v>
       </c>
       <c r="J5">
-        <v>0.4254751576214852</v>
+        <v>0.6259016025719319</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N5">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O5">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P5">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q5">
-        <v>611.1157496087467</v>
+        <v>220.1487092137973</v>
       </c>
       <c r="R5">
-        <v>5500.04174647872</v>
+        <v>1981.338382924176</v>
       </c>
       <c r="S5">
-        <v>0.1801146586217114</v>
+        <v>0.1439544567484407</v>
       </c>
       <c r="T5">
-        <v>0.1801146586217114</v>
+        <v>0.1439544567484408</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>21.275312</v>
       </c>
       <c r="H6">
-        <v>63.82593600000001</v>
+        <v>63.825936</v>
       </c>
       <c r="I6">
-        <v>0.4254751576214853</v>
+        <v>0.6259016025719319</v>
       </c>
       <c r="J6">
-        <v>0.4254751576214852</v>
+        <v>0.6259016025719319</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>91.709587</v>
       </c>
       <c r="O6">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P6">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q6">
-        <v>650.3833589387148</v>
+        <v>650.3833589387147</v>
       </c>
       <c r="R6">
         <v>5853.450230448432</v>
       </c>
       <c r="S6">
-        <v>0.1916880341301745</v>
+        <v>0.4252833616359039</v>
       </c>
       <c r="T6">
-        <v>0.1916880341301745</v>
+        <v>0.425283361635904</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>21.275312</v>
       </c>
       <c r="H7">
-        <v>63.82593600000001</v>
+        <v>63.825936</v>
       </c>
       <c r="I7">
-        <v>0.4254751576214853</v>
+        <v>0.6259016025719319</v>
       </c>
       <c r="J7">
-        <v>0.4254751576214852</v>
+        <v>0.6259016025719319</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N7">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O7">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P7">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q7">
-        <v>182.106713873984</v>
+        <v>86.65559392763733</v>
       </c>
       <c r="R7">
-        <v>1638.960424865856</v>
+        <v>779.900345348736</v>
       </c>
       <c r="S7">
-        <v>0.05367246486959933</v>
+        <v>0.05666378418758725</v>
       </c>
       <c r="T7">
-        <v>0.05367246486959931</v>
+        <v>0.05666378418758726</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.79975</v>
+        <v>12.157548</v>
       </c>
       <c r="H8">
-        <v>53.39924999999999</v>
+        <v>36.472644</v>
       </c>
       <c r="I8">
-        <v>0.3559689952783316</v>
+        <v>0.3576647325569273</v>
       </c>
       <c r="J8">
-        <v>0.3559689952783315</v>
+        <v>0.3576647325569273</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N8">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O8">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P8">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q8">
-        <v>511.2831042899999</v>
+        <v>125.801609837956</v>
       </c>
       <c r="R8">
-        <v>4601.547938609999</v>
+        <v>1132.214488541604</v>
       </c>
       <c r="S8">
-        <v>0.1506908991417756</v>
+        <v>0.08226122454669958</v>
       </c>
       <c r="T8">
-        <v>0.1506908991417756</v>
+        <v>0.08226122454669961</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.79975</v>
+        <v>12.157548</v>
       </c>
       <c r="H9">
-        <v>53.39924999999999</v>
+        <v>36.472644</v>
       </c>
       <c r="I9">
-        <v>0.3559689952783316</v>
+        <v>0.3576647325569273</v>
       </c>
       <c r="J9">
-        <v>0.3559689952783315</v>
+        <v>0.3576647325569273</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>91.709587</v>
       </c>
       <c r="O9">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P9">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q9">
-        <v>544.1359070677499</v>
+        <v>371.654568670892</v>
       </c>
       <c r="R9">
-        <v>4897.223163609749</v>
+        <v>3344.891118038028</v>
       </c>
       <c r="S9">
-        <v>0.1603736333224431</v>
+        <v>0.2430235985582661</v>
       </c>
       <c r="T9">
-        <v>0.1603736333224431</v>
+        <v>0.2430235985582661</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.79975</v>
+        <v>12.157548</v>
       </c>
       <c r="H10">
-        <v>53.39924999999999</v>
+        <v>36.472644</v>
       </c>
       <c r="I10">
-        <v>0.3559689952783316</v>
+        <v>0.3576647325569273</v>
       </c>
       <c r="J10">
-        <v>0.3559689952783315</v>
+        <v>0.3576647325569273</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N10">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O10">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P10">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q10">
-        <v>152.357529717</v>
+        <v>49.518406246816</v>
       </c>
       <c r="R10">
-        <v>1371.217767453</v>
+        <v>445.665656221344</v>
       </c>
       <c r="S10">
-        <v>0.04490446281411292</v>
+        <v>0.03237990945196165</v>
       </c>
       <c r="T10">
-        <v>0.04490446281411292</v>
+        <v>0.03237990945196165</v>
       </c>
     </row>
   </sheetData>
